--- a/examples/data/fedbatch_fedbatch1_testing_batchdata.xlsx
+++ b/examples/data/fedbatch_fedbatch1_testing_batchdata.xlsx
@@ -468,16 +468,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0933699612962119</v>
+        <v>0.04111446499515962</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.30952721234591</v>
+        <v>12.83640750866079</v>
       </c>
       <c r="F2" t="n">
-        <v>1.430827078006325</v>
+        <v>1.077027984019682</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>4.210526315789473</v>
       </c>
       <c r="C3" t="n">
-        <v>0.176268580891158</v>
+        <v>0.07502229978244584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01897492207766003</v>
+        <v>0.00812609723429907</v>
       </c>
       <c r="E3" t="n">
-        <v>10.95181298846785</v>
+        <v>12.29136380519082</v>
       </c>
       <c r="F3" t="n">
-        <v>1.641353393795799</v>
+        <v>1.287554299809156</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>8.421052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3375256684515729</v>
+        <v>0.1403471534041472</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05307695355423545</v>
+        <v>0.02215771158006164</v>
       </c>
       <c r="E4" t="n">
-        <v>10.48101703106464</v>
+        <v>11.8176132820904</v>
       </c>
       <c r="F4" t="n">
-        <v>1.851879709585273</v>
+        <v>1.498080615598629</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>12.63157894736842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6522666198642704</v>
+        <v>0.266957936872968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1174979438485951</v>
+        <v>0.04820822406538701</v>
       </c>
       <c r="E5" t="n">
-        <v>9.733525962152511</v>
+        <v>11.30586886269643</v>
       </c>
       <c r="F5" t="n">
-        <v>2.062406025374746</v>
+        <v>1.708606931388103</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>16.84210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>1.26418788870642</v>
+        <v>0.5144231012168821</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2410821666652964</v>
+        <v>0.09826989735601564</v>
       </c>
       <c r="E6" t="n">
-        <v>8.413535036649151</v>
+        <v>10.60910510921702</v>
       </c>
       <c r="F6" t="n">
-        <v>2.272932341164219</v>
+        <v>1.919133247177577</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>21.05263157894737</v>
       </c>
       <c r="C7" t="n">
-        <v>2.425738107568169</v>
+        <v>0.9966670283652415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.474388733322451</v>
+        <v>0.1951748604085172</v>
       </c>
       <c r="E7" t="n">
-        <v>6.01058748208809</v>
+        <v>9.482701414273308</v>
       </c>
       <c r="F7" t="n">
-        <v>2.483458656953694</v>
+        <v>2.129659562967051</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>25.26315789473684</v>
       </c>
       <c r="C8" t="n">
-        <v>4.36664656948525</v>
+        <v>1.929106489856353</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8634111984331935</v>
+        <v>0.382036860730225</v>
       </c>
       <c r="E8" t="n">
-        <v>2.06140303542399</v>
+        <v>7.485036462156641</v>
       </c>
       <c r="F8" t="n">
-        <v>2.693984972743166</v>
+        <v>2.340185878756524</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>29.47368421052632</v>
       </c>
       <c r="C9" t="n">
-        <v>5.320003987281287</v>
+        <v>3.62509677018106</v>
       </c>
       <c r="D9" t="n">
-        <v>1.054801572057116</v>
+        <v>0.7215472704514186</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09708661349007926</v>
+        <v>3.982188988489208</v>
       </c>
       <c r="F9" t="n">
-        <v>2.904511288532638</v>
+        <v>2.550712194545998</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>33.68421052631579</v>
       </c>
       <c r="C10" t="n">
-        <v>5.302694630349114</v>
+        <v>5.445807097124739</v>
       </c>
       <c r="D10" t="n">
-        <v>1.051961419981135</v>
+        <v>1.08595405945354</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08188961797240714</v>
+        <v>0.2468072452029528</v>
       </c>
       <c r="F10" t="n">
-        <v>3.115037604322112</v>
+        <v>2.761238510335471</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>37.89473684210526</v>
       </c>
       <c r="C11" t="n">
-        <v>5.283584545971278</v>
+        <v>5.487353387871678</v>
       </c>
       <c r="D11" t="n">
-        <v>1.048682408136893</v>
+        <v>1.094490533993775</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07660111588795725</v>
+        <v>0.08306640063867542</v>
       </c>
       <c r="F11" t="n">
-        <v>3.325563920111587</v>
+        <v>2.971764826124946</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>42.10526315789473</v>
       </c>
       <c r="C12" t="n">
-        <v>5.266742036223098</v>
+        <v>5.455056822660219</v>
       </c>
       <c r="D12" t="n">
-        <v>1.045792256471315</v>
+        <v>1.088228374078127</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07195797292782774</v>
+        <v>0.07768193321597061</v>
       </c>
       <c r="F12" t="n">
-        <v>3.536090235901061</v>
+        <v>3.182291141914419</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>46.31578947368421</v>
       </c>
       <c r="C13" t="n">
-        <v>5.25178782536421</v>
+        <v>5.426863567253714</v>
       </c>
       <c r="D13" t="n">
-        <v>1.043226005865333</v>
+        <v>1.082762409188897</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06784568836848671</v>
+        <v>0.07277514826427703</v>
       </c>
       <c r="F13" t="n">
-        <v>3.746616551690535</v>
+        <v>3.392817457703893</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>50.52631578947368</v>
       </c>
       <c r="C14" t="n">
-        <v>5.238421232994141</v>
+        <v>5.401813058599618</v>
       </c>
       <c r="D14" t="n">
-        <v>1.040932100527882</v>
+        <v>1.077904815176907</v>
       </c>
       <c r="E14" t="n">
-        <v>0.06417812114724357</v>
+        <v>0.06874502396520586</v>
       </c>
       <c r="F14" t="n">
-        <v>3.957142867480008</v>
+        <v>3.603343773493367</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>54.73684210526316</v>
       </c>
       <c r="C15" t="n">
-        <v>5.22640219388003</v>
+        <v>5.379695801119841</v>
       </c>
       <c r="D15" t="n">
-        <v>1.03886937396681</v>
+        <v>1.073617034492899</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06088681660530605</v>
+        <v>0.06482449477443379</v>
       </c>
       <c r="F15" t="n">
-        <v>4.167669183269484</v>
+        <v>3.81387008928284</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>58.94736842105263</v>
       </c>
       <c r="C16" t="n">
-        <v>5.215536718070485</v>
+        <v>5.359751882895277</v>
       </c>
       <c r="D16" t="n">
-        <v>1.037004557850867</v>
+        <v>1.06974972709565</v>
       </c>
       <c r="E16" t="n">
-        <v>0.05791668671666373</v>
+        <v>0.06159551054968033</v>
       </c>
       <c r="F16" t="n">
-        <v>4.378195499058961</v>
+        <v>4.024396405072314</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>63.1578947368421</v>
       </c>
       <c r="C17" t="n">
-        <v>5.205666343728552</v>
+        <v>5.341909950714172</v>
       </c>
       <c r="D17" t="n">
-        <v>1.035310474671577</v>
+        <v>1.066290739262226</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0552228988196043</v>
+        <v>0.05844939761553792</v>
       </c>
       <c r="F17" t="n">
-        <v>4.588721814848432</v>
+        <v>4.234922720861787</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>67.36842105263158</v>
       </c>
       <c r="C18" t="n">
-        <v>5.19666036019823</v>
+        <v>5.32566723427802</v>
       </c>
       <c r="D18" t="n">
-        <v>1.033764704939369</v>
+        <v>1.063141232841505</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05276859487330806</v>
+        <v>0.05578265139494607</v>
       </c>
       <c r="F18" t="n">
-        <v>4.799248130637906</v>
+        <v>4.445449036651262</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>71.57894736842105</v>
       </c>
       <c r="C19" t="n">
-        <v>5.188409988081611</v>
+        <v>5.310959719654155</v>
       </c>
       <c r="D19" t="n">
-        <v>1.032348589659208</v>
+        <v>1.060289810607734</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05052319355972748</v>
+        <v>0.05322440953151952</v>
       </c>
       <c r="F19" t="n">
-        <v>5.009774446427384</v>
+        <v>4.655975352440735</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>75.78947368421052</v>
       </c>
       <c r="C20" t="n">
-        <v>5.180823964797546</v>
+        <v>5.297482164293082</v>
       </c>
       <c r="D20" t="n">
-        <v>1.031046473627336</v>
+        <v>1.05767658639118</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04846110850081881</v>
+        <v>0.0509725957099675</v>
       </c>
       <c r="F20" t="n">
-        <v>5.220300762216857</v>
+        <v>4.866501668230208</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>80</v>
       </c>
       <c r="C21" t="n">
-        <v>5.173825154833295</v>
+        <v>5.2851305249263</v>
       </c>
       <c r="D21" t="n">
-        <v>1.029845124323568</v>
+        <v>1.055281721086366</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04656076822314975</v>
+        <v>0.04889116469122824</v>
       </c>
       <c r="F21" t="n">
-        <v>5.430827078006331</v>
+        <v>5.077027984019682</v>
       </c>
     </row>
   </sheetData>
